--- a/doc/Gantt.xlsx
+++ b/doc/Gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t xml:space="preserve">Planificación y organización</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">1 día</t>
   </si>
   <si>
+    <t xml:space="preserve">/10/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instalación Composer</t>
   </si>
   <si>
@@ -172,7 +175,7 @@
     <t xml:space="preserve">Descripción</t>
   </si>
   <si>
-    <t xml:space="preserve">Creación del diagrama de Gantt, diagrama de contexto, diccionario de entradas y salidas, DFD, diccionario de procesos ,mapa de navegación, análisis FODA</t>
+    <t xml:space="preserve">Creación del diagrama de Gantt, diagrama de contexto, diccionario de entradas y salidas, preliminar de datos, DFD, diccionario de procesos, mapa de navegación, análisis FODA</t>
   </si>
   <si>
     <t xml:space="preserve">Instalación del gestor de paquetes PHP, Composer</t>
@@ -181,7 +184,7 @@
     <t xml:space="preserve">Creación del proyecto Laravel (Mediante la consola)</t>
   </si>
   <si>
-    <t xml:space="preserve">Instalación del framework Tailwind siguiendo la guia de Laravel</t>
+    <t xml:space="preserve">Instalación del framework Tailwind siguiendo la guiá de Laravel</t>
   </si>
   <si>
     <t xml:space="preserve">Creación de la base de datos en phpmyadmin</t>
@@ -304,14 +307,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor rgb="FFB0E0E6"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFB0E0E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -397,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -434,11 +437,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,23 +465,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -486,19 +477,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,15 +584,15 @@
   </sheetPr>
   <dimension ref="A1:CE78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B77" activeCellId="0" sqref="B77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="9.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,8 +1060,8 @@
       <c r="D5" s="10" t="n">
         <v>45207</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>45208</v>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -1155,97 +1150,97 @@
       <c r="E6" s="9"/>
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="15"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="16"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="15"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="16"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="16"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="16"/>
+      <c r="W6" s="18"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
+      <c r="Y6" s="18"/>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="16"/>
+      <c r="AA6" s="18"/>
       <c r="AB6" s="15"/>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="18"/>
       <c r="AD6" s="15"/>
-      <c r="AE6" s="16"/>
+      <c r="AE6" s="18"/>
       <c r="AF6" s="15"/>
-      <c r="AG6" s="16"/>
+      <c r="AG6" s="18"/>
       <c r="AH6" s="15"/>
-      <c r="AI6" s="16"/>
+      <c r="AI6" s="18"/>
       <c r="AJ6" s="15"/>
-      <c r="AK6" s="16"/>
+      <c r="AK6" s="18"/>
       <c r="AL6" s="15"/>
-      <c r="AM6" s="16"/>
+      <c r="AM6" s="18"/>
       <c r="AN6" s="15"/>
-      <c r="AO6" s="16"/>
+      <c r="AO6" s="18"/>
       <c r="AP6" s="15"/>
-      <c r="AQ6" s="16"/>
+      <c r="AQ6" s="18"/>
       <c r="AR6" s="15"/>
-      <c r="AS6" s="16"/>
+      <c r="AS6" s="18"/>
       <c r="AT6" s="15"/>
-      <c r="AU6" s="16"/>
+      <c r="AU6" s="18"/>
       <c r="AV6" s="15"/>
-      <c r="AW6" s="16"/>
+      <c r="AW6" s="18"/>
       <c r="AX6" s="15"/>
-      <c r="AY6" s="16"/>
+      <c r="AY6" s="18"/>
       <c r="AZ6" s="15"/>
-      <c r="BA6" s="16"/>
+      <c r="BA6" s="18"/>
       <c r="BB6" s="15"/>
-      <c r="BC6" s="16"/>
+      <c r="BC6" s="18"/>
       <c r="BD6" s="15"/>
-      <c r="BE6" s="16"/>
+      <c r="BE6" s="18"/>
       <c r="BF6" s="15"/>
-      <c r="BG6" s="16"/>
+      <c r="BG6" s="18"/>
       <c r="BH6" s="15"/>
-      <c r="BI6" s="16"/>
+      <c r="BI6" s="18"/>
       <c r="BJ6" s="15"/>
-      <c r="BK6" s="16"/>
+      <c r="BK6" s="18"/>
       <c r="BL6" s="15"/>
-      <c r="BM6" s="16"/>
+      <c r="BM6" s="18"/>
       <c r="BN6" s="15"/>
-      <c r="BO6" s="16"/>
+      <c r="BO6" s="18"/>
       <c r="BP6" s="15"/>
-      <c r="BQ6" s="16"/>
+      <c r="BQ6" s="18"/>
       <c r="BR6" s="15"/>
-      <c r="BS6" s="16"/>
+      <c r="BS6" s="18"/>
       <c r="BT6" s="15"/>
-      <c r="BU6" s="16"/>
+      <c r="BU6" s="18"/>
       <c r="BV6" s="15"/>
-      <c r="BW6" s="16"/>
+      <c r="BW6" s="18"/>
       <c r="BX6" s="15"/>
-      <c r="BY6" s="16"/>
+      <c r="BY6" s="18"/>
       <c r="BZ6" s="15"/>
-      <c r="CA6" s="16"/>
+      <c r="CA6" s="18"/>
       <c r="CB6" s="15"/>
-      <c r="CC6" s="16"/>
+      <c r="CC6" s="18"/>
       <c r="CD6" s="15"/>
-      <c r="CE6" s="16"/>
+      <c r="CE6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="13"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
@@ -1324,93 +1319,93 @@
       <c r="CE7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="16"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
+      <c r="K8" s="18"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="18"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="16"/>
+      <c r="S8" s="18"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="18"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="16"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="16"/>
+      <c r="AA8" s="18"/>
       <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
+      <c r="AC8" s="18"/>
       <c r="AD8" s="15"/>
-      <c r="AE8" s="16"/>
+      <c r="AE8" s="18"/>
       <c r="AF8" s="15"/>
-      <c r="AG8" s="16"/>
+      <c r="AG8" s="18"/>
       <c r="AH8" s="15"/>
-      <c r="AI8" s="16"/>
+      <c r="AI8" s="18"/>
       <c r="AJ8" s="15"/>
-      <c r="AK8" s="16"/>
+      <c r="AK8" s="18"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="16"/>
+      <c r="AM8" s="18"/>
       <c r="AN8" s="15"/>
-      <c r="AO8" s="16"/>
+      <c r="AO8" s="18"/>
       <c r="AP8" s="15"/>
-      <c r="AQ8" s="16"/>
+      <c r="AQ8" s="18"/>
       <c r="AR8" s="15"/>
-      <c r="AS8" s="16"/>
+      <c r="AS8" s="18"/>
       <c r="AT8" s="15"/>
-      <c r="AU8" s="16"/>
+      <c r="AU8" s="18"/>
       <c r="AV8" s="15"/>
-      <c r="AW8" s="16"/>
+      <c r="AW8" s="18"/>
       <c r="AX8" s="15"/>
-      <c r="AY8" s="16"/>
+      <c r="AY8" s="18"/>
       <c r="AZ8" s="15"/>
-      <c r="BA8" s="16"/>
+      <c r="BA8" s="18"/>
       <c r="BB8" s="15"/>
-      <c r="BC8" s="16"/>
+      <c r="BC8" s="18"/>
       <c r="BD8" s="15"/>
-      <c r="BE8" s="16"/>
+      <c r="BE8" s="18"/>
       <c r="BF8" s="15"/>
-      <c r="BG8" s="16"/>
+      <c r="BG8" s="18"/>
       <c r="BH8" s="15"/>
-      <c r="BI8" s="16"/>
+      <c r="BI8" s="18"/>
       <c r="BJ8" s="15"/>
-      <c r="BK8" s="16"/>
+      <c r="BK8" s="18"/>
       <c r="BL8" s="15"/>
-      <c r="BM8" s="16"/>
+      <c r="BM8" s="18"/>
       <c r="BN8" s="15"/>
-      <c r="BO8" s="16"/>
+      <c r="BO8" s="18"/>
       <c r="BP8" s="15"/>
-      <c r="BQ8" s="16"/>
+      <c r="BQ8" s="18"/>
       <c r="BR8" s="15"/>
-      <c r="BS8" s="16"/>
+      <c r="BS8" s="18"/>
       <c r="BT8" s="15"/>
-      <c r="BU8" s="16"/>
+      <c r="BU8" s="18"/>
       <c r="BV8" s="15"/>
-      <c r="BW8" s="16"/>
+      <c r="BW8" s="18"/>
       <c r="BX8" s="15"/>
-      <c r="BY8" s="16"/>
+      <c r="BY8" s="18"/>
       <c r="BZ8" s="15"/>
-      <c r="CA8" s="16"/>
+      <c r="CA8" s="18"/>
       <c r="CB8" s="15"/>
-      <c r="CC8" s="16"/>
+      <c r="CC8" s="18"/>
       <c r="CD8" s="15"/>
-      <c r="CE8" s="16"/>
+      <c r="CE8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>22</v>
@@ -1421,7 +1416,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
@@ -1505,99 +1500,99 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="16"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="16"/>
+      <c r="S10" s="18"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="16"/>
+      <c r="U10" s="18"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="16"/>
+      <c r="W10" s="18"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="16"/>
+      <c r="Y10" s="18"/>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="16"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="15"/>
-      <c r="AC10" s="16"/>
+      <c r="AC10" s="18"/>
       <c r="AD10" s="15"/>
-      <c r="AE10" s="16"/>
+      <c r="AE10" s="18"/>
       <c r="AF10" s="15"/>
-      <c r="AG10" s="16"/>
+      <c r="AG10" s="18"/>
       <c r="AH10" s="15"/>
-      <c r="AI10" s="16"/>
+      <c r="AI10" s="18"/>
       <c r="AJ10" s="15"/>
-      <c r="AK10" s="16"/>
+      <c r="AK10" s="18"/>
       <c r="AL10" s="15"/>
-      <c r="AM10" s="16"/>
+      <c r="AM10" s="18"/>
       <c r="AN10" s="15"/>
-      <c r="AO10" s="16"/>
+      <c r="AO10" s="18"/>
       <c r="AP10" s="15"/>
-      <c r="AQ10" s="16"/>
+      <c r="AQ10" s="18"/>
       <c r="AR10" s="15"/>
-      <c r="AS10" s="16"/>
+      <c r="AS10" s="18"/>
       <c r="AT10" s="15"/>
-      <c r="AU10" s="16"/>
+      <c r="AU10" s="18"/>
       <c r="AV10" s="15"/>
-      <c r="AW10" s="16"/>
+      <c r="AW10" s="18"/>
       <c r="AX10" s="15"/>
-      <c r="AY10" s="16"/>
+      <c r="AY10" s="18"/>
       <c r="AZ10" s="15"/>
-      <c r="BA10" s="16"/>
+      <c r="BA10" s="18"/>
       <c r="BB10" s="15"/>
-      <c r="BC10" s="16"/>
+      <c r="BC10" s="18"/>
       <c r="BD10" s="15"/>
-      <c r="BE10" s="16"/>
+      <c r="BE10" s="18"/>
       <c r="BF10" s="15"/>
-      <c r="BG10" s="16"/>
+      <c r="BG10" s="18"/>
       <c r="BH10" s="15"/>
-      <c r="BI10" s="16"/>
+      <c r="BI10" s="18"/>
       <c r="BJ10" s="15"/>
-      <c r="BK10" s="16"/>
+      <c r="BK10" s="18"/>
       <c r="BL10" s="15"/>
-      <c r="BM10" s="16"/>
+      <c r="BM10" s="18"/>
       <c r="BN10" s="15"/>
-      <c r="BO10" s="16"/>
+      <c r="BO10" s="18"/>
       <c r="BP10" s="15"/>
-      <c r="BQ10" s="16"/>
+      <c r="BQ10" s="18"/>
       <c r="BR10" s="15"/>
-      <c r="BS10" s="16"/>
+      <c r="BS10" s="18"/>
       <c r="BT10" s="15"/>
-      <c r="BU10" s="16"/>
+      <c r="BU10" s="18"/>
       <c r="BV10" s="15"/>
-      <c r="BW10" s="16"/>
+      <c r="BW10" s="18"/>
       <c r="BX10" s="15"/>
-      <c r="BY10" s="16"/>
+      <c r="BY10" s="18"/>
       <c r="BZ10" s="15"/>
-      <c r="CA10" s="16"/>
+      <c r="CA10" s="18"/>
       <c r="CB10" s="15"/>
-      <c r="CC10" s="16"/>
+      <c r="CC10" s="18"/>
       <c r="CD10" s="15"/>
-      <c r="CE10" s="16"/>
+      <c r="CE10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="13"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
@@ -1676,105 +1671,105 @@
       <c r="CE11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="15"/>
-      <c r="U12" s="16"/>
+      <c r="U12" s="18"/>
       <c r="V12" s="15"/>
-      <c r="W12" s="16"/>
+      <c r="W12" s="18"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="16"/>
+      <c r="Y12" s="18"/>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="16"/>
+      <c r="AA12" s="18"/>
       <c r="AB12" s="15"/>
-      <c r="AC12" s="16"/>
+      <c r="AC12" s="18"/>
       <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
+      <c r="AE12" s="18"/>
       <c r="AF12" s="15"/>
-      <c r="AG12" s="16"/>
+      <c r="AG12" s="18"/>
       <c r="AH12" s="15"/>
-      <c r="AI12" s="16"/>
+      <c r="AI12" s="18"/>
       <c r="AJ12" s="15"/>
-      <c r="AK12" s="16"/>
+      <c r="AK12" s="18"/>
       <c r="AL12" s="15"/>
-      <c r="AM12" s="16"/>
+      <c r="AM12" s="18"/>
       <c r="AN12" s="15"/>
-      <c r="AO12" s="16"/>
+      <c r="AO12" s="18"/>
       <c r="AP12" s="15"/>
-      <c r="AQ12" s="16"/>
+      <c r="AQ12" s="18"/>
       <c r="AR12" s="15"/>
-      <c r="AS12" s="16"/>
+      <c r="AS12" s="18"/>
       <c r="AT12" s="15"/>
-      <c r="AU12" s="16"/>
+      <c r="AU12" s="18"/>
       <c r="AV12" s="15"/>
-      <c r="AW12" s="16"/>
+      <c r="AW12" s="18"/>
       <c r="AX12" s="15"/>
-      <c r="AY12" s="16"/>
+      <c r="AY12" s="18"/>
       <c r="AZ12" s="15"/>
-      <c r="BA12" s="16"/>
+      <c r="BA12" s="18"/>
       <c r="BB12" s="15"/>
-      <c r="BC12" s="16"/>
+      <c r="BC12" s="18"/>
       <c r="BD12" s="15"/>
-      <c r="BE12" s="16"/>
+      <c r="BE12" s="18"/>
       <c r="BF12" s="15"/>
-      <c r="BG12" s="16"/>
+      <c r="BG12" s="18"/>
       <c r="BH12" s="15"/>
-      <c r="BI12" s="16"/>
+      <c r="BI12" s="18"/>
       <c r="BJ12" s="15"/>
-      <c r="BK12" s="16"/>
+      <c r="BK12" s="18"/>
       <c r="BL12" s="15"/>
-      <c r="BM12" s="16"/>
+      <c r="BM12" s="18"/>
       <c r="BN12" s="15"/>
-      <c r="BO12" s="16"/>
+      <c r="BO12" s="18"/>
       <c r="BP12" s="15"/>
-      <c r="BQ12" s="16"/>
+      <c r="BQ12" s="18"/>
       <c r="BR12" s="15"/>
-      <c r="BS12" s="16"/>
+      <c r="BS12" s="18"/>
       <c r="BT12" s="15"/>
-      <c r="BU12" s="16"/>
+      <c r="BU12" s="18"/>
       <c r="BV12" s="15"/>
-      <c r="BW12" s="16"/>
+      <c r="BW12" s="18"/>
       <c r="BX12" s="15"/>
-      <c r="BY12" s="16"/>
+      <c r="BY12" s="18"/>
       <c r="BZ12" s="15"/>
-      <c r="CA12" s="16"/>
+      <c r="CA12" s="18"/>
       <c r="CB12" s="15"/>
-      <c r="CC12" s="16"/>
+      <c r="CC12" s="18"/>
       <c r="CD12" s="15"/>
-      <c r="CE12" s="16"/>
+      <c r="CE12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
@@ -1858,96 +1853,96 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="16"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="15"/>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="15"/>
-      <c r="S14" s="16"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="16"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="15"/>
-      <c r="W14" s="16"/>
+      <c r="W14" s="18"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="16"/>
+      <c r="Y14" s="18"/>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="16"/>
+      <c r="AA14" s="18"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="16"/>
+      <c r="AC14" s="18"/>
       <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
+      <c r="AE14" s="18"/>
       <c r="AF14" s="15"/>
-      <c r="AG14" s="16"/>
+      <c r="AG14" s="18"/>
       <c r="AH14" s="15"/>
-      <c r="AI14" s="16"/>
+      <c r="AI14" s="18"/>
       <c r="AJ14" s="15"/>
-      <c r="AK14" s="16"/>
+      <c r="AK14" s="18"/>
       <c r="AL14" s="15"/>
-      <c r="AM14" s="16"/>
+      <c r="AM14" s="18"/>
       <c r="AN14" s="15"/>
-      <c r="AO14" s="16"/>
+      <c r="AO14" s="18"/>
       <c r="AP14" s="15"/>
-      <c r="AQ14" s="16"/>
+      <c r="AQ14" s="18"/>
       <c r="AR14" s="15"/>
-      <c r="AS14" s="16"/>
+      <c r="AS14" s="18"/>
       <c r="AT14" s="15"/>
-      <c r="AU14" s="16"/>
+      <c r="AU14" s="18"/>
       <c r="AV14" s="15"/>
-      <c r="AW14" s="16"/>
+      <c r="AW14" s="18"/>
       <c r="AX14" s="15"/>
-      <c r="AY14" s="16"/>
+      <c r="AY14" s="18"/>
       <c r="AZ14" s="15"/>
-      <c r="BA14" s="16"/>
+      <c r="BA14" s="18"/>
       <c r="BB14" s="15"/>
-      <c r="BC14" s="16"/>
+      <c r="BC14" s="18"/>
       <c r="BD14" s="15"/>
-      <c r="BE14" s="16"/>
+      <c r="BE14" s="18"/>
       <c r="BF14" s="15"/>
-      <c r="BG14" s="16"/>
+      <c r="BG14" s="18"/>
       <c r="BH14" s="15"/>
-      <c r="BI14" s="16"/>
+      <c r="BI14" s="18"/>
       <c r="BJ14" s="15"/>
-      <c r="BK14" s="16"/>
+      <c r="BK14" s="18"/>
       <c r="BL14" s="15"/>
-      <c r="BM14" s="16"/>
+      <c r="BM14" s="18"/>
       <c r="BN14" s="15"/>
-      <c r="BO14" s="16"/>
+      <c r="BO14" s="18"/>
       <c r="BP14" s="15"/>
-      <c r="BQ14" s="16"/>
+      <c r="BQ14" s="18"/>
       <c r="BR14" s="15"/>
-      <c r="BS14" s="16"/>
+      <c r="BS14" s="18"/>
       <c r="BT14" s="15"/>
-      <c r="BU14" s="16"/>
+      <c r="BU14" s="18"/>
       <c r="BV14" s="15"/>
-      <c r="BW14" s="16"/>
+      <c r="BW14" s="18"/>
       <c r="BX14" s="15"/>
-      <c r="BY14" s="16"/>
+      <c r="BY14" s="18"/>
       <c r="BZ14" s="15"/>
-      <c r="CA14" s="16"/>
+      <c r="CA14" s="18"/>
       <c r="CB14" s="15"/>
-      <c r="CC14" s="16"/>
+      <c r="CC14" s="18"/>
       <c r="CD14" s="15"/>
-      <c r="CE14" s="16"/>
+      <c r="CE14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
       <c r="H15" s="13"/>
@@ -2028,99 +2023,99 @@
       <c r="CE15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="15"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="16"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
+      <c r="Y16" s="18"/>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="16"/>
+      <c r="AA16" s="18"/>
       <c r="AB16" s="15"/>
-      <c r="AC16" s="16"/>
+      <c r="AC16" s="18"/>
       <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
+      <c r="AE16" s="18"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="16"/>
+      <c r="AG16" s="18"/>
       <c r="AH16" s="15"/>
-      <c r="AI16" s="16"/>
+      <c r="AI16" s="18"/>
       <c r="AJ16" s="15"/>
-      <c r="AK16" s="16"/>
+      <c r="AK16" s="18"/>
       <c r="AL16" s="15"/>
-      <c r="AM16" s="16"/>
+      <c r="AM16" s="18"/>
       <c r="AN16" s="15"/>
-      <c r="AO16" s="16"/>
+      <c r="AO16" s="18"/>
       <c r="AP16" s="15"/>
-      <c r="AQ16" s="16"/>
+      <c r="AQ16" s="18"/>
       <c r="AR16" s="15"/>
-      <c r="AS16" s="16"/>
+      <c r="AS16" s="18"/>
       <c r="AT16" s="15"/>
-      <c r="AU16" s="16"/>
+      <c r="AU16" s="18"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="16"/>
+      <c r="AW16" s="18"/>
       <c r="AX16" s="15"/>
-      <c r="AY16" s="16"/>
+      <c r="AY16" s="18"/>
       <c r="AZ16" s="15"/>
-      <c r="BA16" s="16"/>
+      <c r="BA16" s="18"/>
       <c r="BB16" s="15"/>
-      <c r="BC16" s="16"/>
+      <c r="BC16" s="18"/>
       <c r="BD16" s="15"/>
-      <c r="BE16" s="16"/>
+      <c r="BE16" s="18"/>
       <c r="BF16" s="15"/>
-      <c r="BG16" s="16"/>
+      <c r="BG16" s="18"/>
       <c r="BH16" s="15"/>
-      <c r="BI16" s="16"/>
+      <c r="BI16" s="18"/>
       <c r="BJ16" s="15"/>
-      <c r="BK16" s="16"/>
+      <c r="BK16" s="18"/>
       <c r="BL16" s="15"/>
-      <c r="BM16" s="16"/>
+      <c r="BM16" s="18"/>
       <c r="BN16" s="15"/>
-      <c r="BO16" s="16"/>
+      <c r="BO16" s="18"/>
       <c r="BP16" s="15"/>
-      <c r="BQ16" s="16"/>
+      <c r="BQ16" s="18"/>
       <c r="BR16" s="15"/>
-      <c r="BS16" s="16"/>
+      <c r="BS16" s="18"/>
       <c r="BT16" s="15"/>
-      <c r="BU16" s="16"/>
+      <c r="BU16" s="18"/>
       <c r="BV16" s="15"/>
-      <c r="BW16" s="16"/>
+      <c r="BW16" s="18"/>
       <c r="BX16" s="15"/>
-      <c r="BY16" s="16"/>
+      <c r="BY16" s="18"/>
       <c r="BZ16" s="15"/>
-      <c r="CA16" s="16"/>
+      <c r="CA16" s="18"/>
       <c r="CB16" s="15"/>
-      <c r="CC16" s="16"/>
+      <c r="CC16" s="18"/>
       <c r="CD16" s="15"/>
-      <c r="CE16" s="16"/>
+      <c r="CE16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -2210,96 +2205,96 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="15"/>
-      <c r="M18" s="16"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="16"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="16"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="16"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="16"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
+      <c r="Y18" s="18"/>
       <c r="Z18" s="15"/>
-      <c r="AA18" s="16"/>
+      <c r="AA18" s="18"/>
       <c r="AB18" s="15"/>
-      <c r="AC18" s="16"/>
+      <c r="AC18" s="18"/>
       <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
+      <c r="AE18" s="18"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="16"/>
+      <c r="AG18" s="18"/>
       <c r="AH18" s="15"/>
-      <c r="AI18" s="16"/>
+      <c r="AI18" s="18"/>
       <c r="AJ18" s="15"/>
-      <c r="AK18" s="16"/>
+      <c r="AK18" s="18"/>
       <c r="AL18" s="15"/>
-      <c r="AM18" s="16"/>
+      <c r="AM18" s="18"/>
       <c r="AN18" s="15"/>
-      <c r="AO18" s="16"/>
+      <c r="AO18" s="18"/>
       <c r="AP18" s="15"/>
-      <c r="AQ18" s="16"/>
+      <c r="AQ18" s="18"/>
       <c r="AR18" s="15"/>
-      <c r="AS18" s="16"/>
+      <c r="AS18" s="18"/>
       <c r="AT18" s="15"/>
-      <c r="AU18" s="16"/>
+      <c r="AU18" s="18"/>
       <c r="AV18" s="15"/>
-      <c r="AW18" s="16"/>
+      <c r="AW18" s="18"/>
       <c r="AX18" s="15"/>
-      <c r="AY18" s="16"/>
+      <c r="AY18" s="18"/>
       <c r="AZ18" s="15"/>
-      <c r="BA18" s="16"/>
+      <c r="BA18" s="18"/>
       <c r="BB18" s="15"/>
-      <c r="BC18" s="16"/>
+      <c r="BC18" s="18"/>
       <c r="BD18" s="15"/>
-      <c r="BE18" s="16"/>
+      <c r="BE18" s="18"/>
       <c r="BF18" s="15"/>
-      <c r="BG18" s="16"/>
+      <c r="BG18" s="18"/>
       <c r="BH18" s="15"/>
-      <c r="BI18" s="16"/>
+      <c r="BI18" s="18"/>
       <c r="BJ18" s="15"/>
-      <c r="BK18" s="16"/>
+      <c r="BK18" s="18"/>
       <c r="BL18" s="15"/>
-      <c r="BM18" s="16"/>
+      <c r="BM18" s="18"/>
       <c r="BN18" s="15"/>
-      <c r="BO18" s="16"/>
+      <c r="BO18" s="18"/>
       <c r="BP18" s="15"/>
-      <c r="BQ18" s="16"/>
+      <c r="BQ18" s="18"/>
       <c r="BR18" s="15"/>
-      <c r="BS18" s="16"/>
+      <c r="BS18" s="18"/>
       <c r="BT18" s="15"/>
-      <c r="BU18" s="16"/>
+      <c r="BU18" s="18"/>
       <c r="BV18" s="15"/>
-      <c r="BW18" s="16"/>
+      <c r="BW18" s="18"/>
       <c r="BX18" s="15"/>
-      <c r="BY18" s="16"/>
+      <c r="BY18" s="18"/>
       <c r="BZ18" s="15"/>
-      <c r="CA18" s="16"/>
+      <c r="CA18" s="18"/>
       <c r="CB18" s="15"/>
-      <c r="CC18" s="16"/>
+      <c r="CC18" s="18"/>
       <c r="CD18" s="15"/>
-      <c r="CE18" s="16"/>
+      <c r="CE18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
       <c r="H19" s="13"/>
@@ -2380,99 +2375,99 @@
       <c r="CE19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="O20" s="18"/>
       <c r="P20" s="15"/>
-      <c r="Q20" s="16"/>
+      <c r="Q20" s="18"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
+      <c r="S20" s="18"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
+      <c r="U20" s="18"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="16"/>
+      <c r="W20" s="18"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
+      <c r="Y20" s="18"/>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="16"/>
+      <c r="AA20" s="18"/>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="16"/>
+      <c r="AC20" s="18"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
+      <c r="AE20" s="18"/>
       <c r="AF20" s="15"/>
-      <c r="AG20" s="16"/>
+      <c r="AG20" s="18"/>
       <c r="AH20" s="15"/>
-      <c r="AI20" s="16"/>
+      <c r="AI20" s="18"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="16"/>
+      <c r="AK20" s="18"/>
       <c r="AL20" s="15"/>
-      <c r="AM20" s="16"/>
+      <c r="AM20" s="18"/>
       <c r="AN20" s="15"/>
-      <c r="AO20" s="16"/>
+      <c r="AO20" s="18"/>
       <c r="AP20" s="15"/>
-      <c r="AQ20" s="16"/>
+      <c r="AQ20" s="18"/>
       <c r="AR20" s="15"/>
-      <c r="AS20" s="16"/>
+      <c r="AS20" s="18"/>
       <c r="AT20" s="15"/>
-      <c r="AU20" s="16"/>
+      <c r="AU20" s="18"/>
       <c r="AV20" s="15"/>
-      <c r="AW20" s="16"/>
+      <c r="AW20" s="18"/>
       <c r="AX20" s="15"/>
-      <c r="AY20" s="16"/>
+      <c r="AY20" s="18"/>
       <c r="AZ20" s="15"/>
-      <c r="BA20" s="16"/>
+      <c r="BA20" s="18"/>
       <c r="BB20" s="15"/>
-      <c r="BC20" s="16"/>
+      <c r="BC20" s="18"/>
       <c r="BD20" s="15"/>
-      <c r="BE20" s="16"/>
+      <c r="BE20" s="18"/>
       <c r="BF20" s="15"/>
-      <c r="BG20" s="16"/>
+      <c r="BG20" s="18"/>
       <c r="BH20" s="15"/>
-      <c r="BI20" s="16"/>
+      <c r="BI20" s="18"/>
       <c r="BJ20" s="15"/>
-      <c r="BK20" s="16"/>
+      <c r="BK20" s="18"/>
       <c r="BL20" s="15"/>
-      <c r="BM20" s="16"/>
+      <c r="BM20" s="18"/>
       <c r="BN20" s="15"/>
-      <c r="BO20" s="16"/>
+      <c r="BO20" s="18"/>
       <c r="BP20" s="15"/>
-      <c r="BQ20" s="16"/>
+      <c r="BQ20" s="18"/>
       <c r="BR20" s="15"/>
-      <c r="BS20" s="16"/>
+      <c r="BS20" s="18"/>
       <c r="BT20" s="15"/>
-      <c r="BU20" s="16"/>
+      <c r="BU20" s="18"/>
       <c r="BV20" s="15"/>
-      <c r="BW20" s="16"/>
+      <c r="BW20" s="18"/>
       <c r="BX20" s="15"/>
-      <c r="BY20" s="16"/>
+      <c r="BY20" s="18"/>
       <c r="BZ20" s="15"/>
-      <c r="CA20" s="16"/>
+      <c r="CA20" s="18"/>
       <c r="CB20" s="15"/>
-      <c r="CC20" s="16"/>
+      <c r="CC20" s="18"/>
       <c r="CD20" s="15"/>
-      <c r="CE20" s="16"/>
+      <c r="CE20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2562,96 +2557,96 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="16"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="16"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="15"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="15"/>
-      <c r="S22" s="16"/>
+      <c r="S22" s="18"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="16"/>
+      <c r="U22" s="18"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="16"/>
+      <c r="W22" s="18"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="16"/>
+      <c r="Y22" s="18"/>
       <c r="Z22" s="15"/>
-      <c r="AA22" s="16"/>
+      <c r="AA22" s="18"/>
       <c r="AB22" s="15"/>
-      <c r="AC22" s="16"/>
+      <c r="AC22" s="18"/>
       <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
+      <c r="AE22" s="18"/>
       <c r="AF22" s="15"/>
-      <c r="AG22" s="16"/>
+      <c r="AG22" s="18"/>
       <c r="AH22" s="15"/>
-      <c r="AI22" s="16"/>
+      <c r="AI22" s="18"/>
       <c r="AJ22" s="15"/>
-      <c r="AK22" s="16"/>
+      <c r="AK22" s="18"/>
       <c r="AL22" s="15"/>
-      <c r="AM22" s="16"/>
+      <c r="AM22" s="18"/>
       <c r="AN22" s="15"/>
-      <c r="AO22" s="16"/>
+      <c r="AO22" s="18"/>
       <c r="AP22" s="15"/>
-      <c r="AQ22" s="16"/>
+      <c r="AQ22" s="18"/>
       <c r="AR22" s="15"/>
-      <c r="AS22" s="16"/>
+      <c r="AS22" s="18"/>
       <c r="AT22" s="15"/>
-      <c r="AU22" s="16"/>
+      <c r="AU22" s="18"/>
       <c r="AV22" s="15"/>
-      <c r="AW22" s="16"/>
+      <c r="AW22" s="18"/>
       <c r="AX22" s="15"/>
-      <c r="AY22" s="16"/>
+      <c r="AY22" s="18"/>
       <c r="AZ22" s="15"/>
-      <c r="BA22" s="16"/>
+      <c r="BA22" s="18"/>
       <c r="BB22" s="15"/>
-      <c r="BC22" s="16"/>
+      <c r="BC22" s="18"/>
       <c r="BD22" s="15"/>
-      <c r="BE22" s="16"/>
+      <c r="BE22" s="18"/>
       <c r="BF22" s="15"/>
-      <c r="BG22" s="16"/>
+      <c r="BG22" s="18"/>
       <c r="BH22" s="15"/>
-      <c r="BI22" s="16"/>
+      <c r="BI22" s="18"/>
       <c r="BJ22" s="15"/>
-      <c r="BK22" s="16"/>
+      <c r="BK22" s="18"/>
       <c r="BL22" s="15"/>
-      <c r="BM22" s="16"/>
+      <c r="BM22" s="18"/>
       <c r="BN22" s="15"/>
-      <c r="BO22" s="16"/>
+      <c r="BO22" s="18"/>
       <c r="BP22" s="15"/>
-      <c r="BQ22" s="16"/>
+      <c r="BQ22" s="18"/>
       <c r="BR22" s="15"/>
-      <c r="BS22" s="16"/>
+      <c r="BS22" s="18"/>
       <c r="BT22" s="15"/>
-      <c r="BU22" s="16"/>
+      <c r="BU22" s="18"/>
       <c r="BV22" s="15"/>
-      <c r="BW22" s="16"/>
+      <c r="BW22" s="18"/>
       <c r="BX22" s="15"/>
-      <c r="BY22" s="16"/>
+      <c r="BY22" s="18"/>
       <c r="BZ22" s="15"/>
-      <c r="CA22" s="16"/>
+      <c r="CA22" s="18"/>
       <c r="CB22" s="15"/>
-      <c r="CC22" s="16"/>
+      <c r="CC22" s="18"/>
       <c r="CD22" s="15"/>
-      <c r="CE22" s="16"/>
+      <c r="CE22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="13"/>
@@ -2732,99 +2727,99 @@
       <c r="CE23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
+      <c r="O24" s="18"/>
       <c r="P24" s="15"/>
-      <c r="Q24" s="16"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="15"/>
-      <c r="S24" s="16"/>
+      <c r="S24" s="18"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="16"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="16"/>
+      <c r="W24" s="18"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="16"/>
+      <c r="Y24" s="18"/>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="16"/>
+      <c r="AA24" s="18"/>
       <c r="AB24" s="15"/>
-      <c r="AC24" s="16"/>
+      <c r="AC24" s="18"/>
       <c r="AD24" s="15"/>
-      <c r="AE24" s="16"/>
+      <c r="AE24" s="18"/>
       <c r="AF24" s="15"/>
-      <c r="AG24" s="16"/>
+      <c r="AG24" s="18"/>
       <c r="AH24" s="15"/>
-      <c r="AI24" s="16"/>
+      <c r="AI24" s="18"/>
       <c r="AJ24" s="15"/>
-      <c r="AK24" s="16"/>
+      <c r="AK24" s="18"/>
       <c r="AL24" s="15"/>
-      <c r="AM24" s="16"/>
+      <c r="AM24" s="18"/>
       <c r="AN24" s="15"/>
-      <c r="AO24" s="16"/>
+      <c r="AO24" s="18"/>
       <c r="AP24" s="15"/>
-      <c r="AQ24" s="16"/>
+      <c r="AQ24" s="18"/>
       <c r="AR24" s="15"/>
-      <c r="AS24" s="16"/>
+      <c r="AS24" s="18"/>
       <c r="AT24" s="15"/>
-      <c r="AU24" s="16"/>
+      <c r="AU24" s="18"/>
       <c r="AV24" s="15"/>
-      <c r="AW24" s="16"/>
+      <c r="AW24" s="18"/>
       <c r="AX24" s="15"/>
-      <c r="AY24" s="16"/>
+      <c r="AY24" s="18"/>
       <c r="AZ24" s="15"/>
-      <c r="BA24" s="16"/>
+      <c r="BA24" s="18"/>
       <c r="BB24" s="15"/>
-      <c r="BC24" s="16"/>
+      <c r="BC24" s="18"/>
       <c r="BD24" s="15"/>
-      <c r="BE24" s="16"/>
+      <c r="BE24" s="18"/>
       <c r="BF24" s="15"/>
-      <c r="BG24" s="16"/>
+      <c r="BG24" s="18"/>
       <c r="BH24" s="15"/>
-      <c r="BI24" s="16"/>
+      <c r="BI24" s="18"/>
       <c r="BJ24" s="15"/>
-      <c r="BK24" s="16"/>
+      <c r="BK24" s="18"/>
       <c r="BL24" s="15"/>
-      <c r="BM24" s="16"/>
+      <c r="BM24" s="18"/>
       <c r="BN24" s="15"/>
-      <c r="BO24" s="16"/>
+      <c r="BO24" s="18"/>
       <c r="BP24" s="15"/>
-      <c r="BQ24" s="16"/>
+      <c r="BQ24" s="18"/>
       <c r="BR24" s="15"/>
-      <c r="BS24" s="16"/>
+      <c r="BS24" s="18"/>
       <c r="BT24" s="15"/>
-      <c r="BU24" s="16"/>
+      <c r="BU24" s="18"/>
       <c r="BV24" s="15"/>
-      <c r="BW24" s="16"/>
+      <c r="BW24" s="18"/>
       <c r="BX24" s="15"/>
-      <c r="BY24" s="16"/>
+      <c r="BY24" s="18"/>
       <c r="BZ24" s="15"/>
-      <c r="CA24" s="16"/>
+      <c r="CA24" s="18"/>
       <c r="CB24" s="15"/>
-      <c r="CC24" s="16"/>
+      <c r="CC24" s="18"/>
       <c r="CD24" s="15"/>
-      <c r="CE24" s="16"/>
+      <c r="CE24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -2914,96 +2909,96 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
+      <c r="O26" s="18"/>
       <c r="P26" s="15"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="18"/>
       <c r="R26" s="15"/>
-      <c r="S26" s="16"/>
+      <c r="S26" s="18"/>
       <c r="T26" s="15"/>
-      <c r="U26" s="16"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="15"/>
-      <c r="W26" s="16"/>
+      <c r="W26" s="18"/>
       <c r="X26" s="15"/>
-      <c r="Y26" s="16"/>
+      <c r="Y26" s="18"/>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="16"/>
+      <c r="AA26" s="18"/>
       <c r="AB26" s="15"/>
-      <c r="AC26" s="16"/>
+      <c r="AC26" s="18"/>
       <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
+      <c r="AE26" s="18"/>
       <c r="AF26" s="15"/>
-      <c r="AG26" s="16"/>
+      <c r="AG26" s="18"/>
       <c r="AH26" s="15"/>
-      <c r="AI26" s="16"/>
+      <c r="AI26" s="18"/>
       <c r="AJ26" s="15"/>
-      <c r="AK26" s="16"/>
+      <c r="AK26" s="18"/>
       <c r="AL26" s="15"/>
-      <c r="AM26" s="16"/>
+      <c r="AM26" s="18"/>
       <c r="AN26" s="15"/>
-      <c r="AO26" s="16"/>
+      <c r="AO26" s="18"/>
       <c r="AP26" s="15"/>
-      <c r="AQ26" s="16"/>
+      <c r="AQ26" s="18"/>
       <c r="AR26" s="15"/>
-      <c r="AS26" s="16"/>
+      <c r="AS26" s="18"/>
       <c r="AT26" s="15"/>
-      <c r="AU26" s="16"/>
+      <c r="AU26" s="18"/>
       <c r="AV26" s="15"/>
-      <c r="AW26" s="16"/>
+      <c r="AW26" s="18"/>
       <c r="AX26" s="15"/>
-      <c r="AY26" s="16"/>
+      <c r="AY26" s="18"/>
       <c r="AZ26" s="15"/>
-      <c r="BA26" s="16"/>
+      <c r="BA26" s="18"/>
       <c r="BB26" s="15"/>
-      <c r="BC26" s="16"/>
+      <c r="BC26" s="18"/>
       <c r="BD26" s="15"/>
-      <c r="BE26" s="16"/>
+      <c r="BE26" s="18"/>
       <c r="BF26" s="15"/>
-      <c r="BG26" s="16"/>
+      <c r="BG26" s="18"/>
       <c r="BH26" s="15"/>
-      <c r="BI26" s="16"/>
+      <c r="BI26" s="18"/>
       <c r="BJ26" s="15"/>
-      <c r="BK26" s="16"/>
+      <c r="BK26" s="18"/>
       <c r="BL26" s="15"/>
-      <c r="BM26" s="16"/>
+      <c r="BM26" s="18"/>
       <c r="BN26" s="15"/>
-      <c r="BO26" s="16"/>
+      <c r="BO26" s="18"/>
       <c r="BP26" s="15"/>
-      <c r="BQ26" s="16"/>
+      <c r="BQ26" s="18"/>
       <c r="BR26" s="15"/>
-      <c r="BS26" s="16"/>
+      <c r="BS26" s="18"/>
       <c r="BT26" s="15"/>
-      <c r="BU26" s="16"/>
+      <c r="BU26" s="18"/>
       <c r="BV26" s="15"/>
-      <c r="BW26" s="16"/>
+      <c r="BW26" s="18"/>
       <c r="BX26" s="15"/>
-      <c r="BY26" s="16"/>
+      <c r="BY26" s="18"/>
       <c r="BZ26" s="15"/>
-      <c r="CA26" s="16"/>
+      <c r="CA26" s="18"/>
       <c r="CB26" s="15"/>
-      <c r="CC26" s="16"/>
+      <c r="CC26" s="18"/>
       <c r="CD26" s="15"/>
-      <c r="CE26" s="16"/>
+      <c r="CE26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="C27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="13"/>
@@ -3084,99 +3079,99 @@
       <c r="CE27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="16"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="16"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="15"/>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="15"/>
-      <c r="S28" s="16"/>
+      <c r="S28" s="18"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="16"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="15"/>
-      <c r="W28" s="16"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="16"/>
+      <c r="Y28" s="18"/>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="16"/>
+      <c r="AA28" s="18"/>
       <c r="AB28" s="15"/>
-      <c r="AC28" s="16"/>
+      <c r="AC28" s="18"/>
       <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
+      <c r="AE28" s="18"/>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="16"/>
+      <c r="AG28" s="18"/>
       <c r="AH28" s="15"/>
-      <c r="AI28" s="16"/>
+      <c r="AI28" s="18"/>
       <c r="AJ28" s="15"/>
-      <c r="AK28" s="16"/>
+      <c r="AK28" s="18"/>
       <c r="AL28" s="15"/>
-      <c r="AM28" s="16"/>
+      <c r="AM28" s="18"/>
       <c r="AN28" s="15"/>
-      <c r="AO28" s="16"/>
+      <c r="AO28" s="18"/>
       <c r="AP28" s="15"/>
-      <c r="AQ28" s="16"/>
+      <c r="AQ28" s="18"/>
       <c r="AR28" s="15"/>
-      <c r="AS28" s="16"/>
+      <c r="AS28" s="18"/>
       <c r="AT28" s="15"/>
-      <c r="AU28" s="16"/>
+      <c r="AU28" s="18"/>
       <c r="AV28" s="15"/>
-      <c r="AW28" s="16"/>
+      <c r="AW28" s="18"/>
       <c r="AX28" s="15"/>
-      <c r="AY28" s="16"/>
+      <c r="AY28" s="18"/>
       <c r="AZ28" s="15"/>
-      <c r="BA28" s="16"/>
+      <c r="BA28" s="18"/>
       <c r="BB28" s="15"/>
-      <c r="BC28" s="16"/>
+      <c r="BC28" s="18"/>
       <c r="BD28" s="15"/>
-      <c r="BE28" s="16"/>
+      <c r="BE28" s="18"/>
       <c r="BF28" s="15"/>
-      <c r="BG28" s="16"/>
+      <c r="BG28" s="18"/>
       <c r="BH28" s="15"/>
-      <c r="BI28" s="16"/>
+      <c r="BI28" s="18"/>
       <c r="BJ28" s="15"/>
-      <c r="BK28" s="16"/>
+      <c r="BK28" s="18"/>
       <c r="BL28" s="15"/>
-      <c r="BM28" s="16"/>
+      <c r="BM28" s="18"/>
       <c r="BN28" s="15"/>
-      <c r="BO28" s="16"/>
+      <c r="BO28" s="18"/>
       <c r="BP28" s="15"/>
-      <c r="BQ28" s="16"/>
+      <c r="BQ28" s="18"/>
       <c r="BR28" s="15"/>
-      <c r="BS28" s="16"/>
+      <c r="BS28" s="18"/>
       <c r="BT28" s="15"/>
-      <c r="BU28" s="16"/>
+      <c r="BU28" s="18"/>
       <c r="BV28" s="15"/>
-      <c r="BW28" s="16"/>
+      <c r="BW28" s="18"/>
       <c r="BX28" s="15"/>
-      <c r="BY28" s="16"/>
+      <c r="BY28" s="18"/>
       <c r="BZ28" s="15"/>
-      <c r="CA28" s="16"/>
+      <c r="CA28" s="18"/>
       <c r="CB28" s="15"/>
-      <c r="CC28" s="16"/>
+      <c r="CC28" s="18"/>
       <c r="CD28" s="15"/>
-      <c r="CE28" s="16"/>
+      <c r="CE28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3266,96 +3261,96 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="15"/>
-      <c r="I30" s="16"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="15"/>
-      <c r="O30" s="16"/>
+      <c r="O30" s="18"/>
       <c r="P30" s="15"/>
-      <c r="Q30" s="16"/>
+      <c r="Q30" s="18"/>
       <c r="R30" s="15"/>
-      <c r="S30" s="16"/>
+      <c r="S30" s="18"/>
       <c r="T30" s="15"/>
-      <c r="U30" s="16"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="15"/>
-      <c r="W30" s="16"/>
+      <c r="W30" s="18"/>
       <c r="X30" s="15"/>
-      <c r="Y30" s="16"/>
+      <c r="Y30" s="18"/>
       <c r="Z30" s="15"/>
-      <c r="AA30" s="16"/>
+      <c r="AA30" s="18"/>
       <c r="AB30" s="15"/>
-      <c r="AC30" s="16"/>
+      <c r="AC30" s="18"/>
       <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
+      <c r="AE30" s="18"/>
       <c r="AF30" s="15"/>
-      <c r="AG30" s="16"/>
+      <c r="AG30" s="18"/>
       <c r="AH30" s="15"/>
-      <c r="AI30" s="16"/>
+      <c r="AI30" s="18"/>
       <c r="AJ30" s="15"/>
-      <c r="AK30" s="16"/>
+      <c r="AK30" s="18"/>
       <c r="AL30" s="15"/>
-      <c r="AM30" s="16"/>
+      <c r="AM30" s="18"/>
       <c r="AN30" s="15"/>
-      <c r="AO30" s="16"/>
+      <c r="AO30" s="18"/>
       <c r="AP30" s="15"/>
-      <c r="AQ30" s="16"/>
+      <c r="AQ30" s="18"/>
       <c r="AR30" s="15"/>
-      <c r="AS30" s="16"/>
+      <c r="AS30" s="18"/>
       <c r="AT30" s="15"/>
-      <c r="AU30" s="16"/>
+      <c r="AU30" s="18"/>
       <c r="AV30" s="15"/>
-      <c r="AW30" s="16"/>
+      <c r="AW30" s="18"/>
       <c r="AX30" s="15"/>
-      <c r="AY30" s="16"/>
+      <c r="AY30" s="18"/>
       <c r="AZ30" s="15"/>
-      <c r="BA30" s="16"/>
+      <c r="BA30" s="18"/>
       <c r="BB30" s="15"/>
-      <c r="BC30" s="16"/>
+      <c r="BC30" s="18"/>
       <c r="BD30" s="15"/>
-      <c r="BE30" s="16"/>
+      <c r="BE30" s="18"/>
       <c r="BF30" s="15"/>
-      <c r="BG30" s="16"/>
+      <c r="BG30" s="18"/>
       <c r="BH30" s="15"/>
-      <c r="BI30" s="16"/>
+      <c r="BI30" s="18"/>
       <c r="BJ30" s="15"/>
-      <c r="BK30" s="16"/>
+      <c r="BK30" s="18"/>
       <c r="BL30" s="15"/>
-      <c r="BM30" s="16"/>
+      <c r="BM30" s="18"/>
       <c r="BN30" s="15"/>
-      <c r="BO30" s="16"/>
+      <c r="BO30" s="18"/>
       <c r="BP30" s="15"/>
-      <c r="BQ30" s="16"/>
+      <c r="BQ30" s="18"/>
       <c r="BR30" s="15"/>
-      <c r="BS30" s="16"/>
+      <c r="BS30" s="18"/>
       <c r="BT30" s="15"/>
-      <c r="BU30" s="16"/>
+      <c r="BU30" s="18"/>
       <c r="BV30" s="15"/>
-      <c r="BW30" s="16"/>
+      <c r="BW30" s="18"/>
       <c r="BX30" s="15"/>
-      <c r="BY30" s="16"/>
+      <c r="BY30" s="18"/>
       <c r="BZ30" s="15"/>
-      <c r="CA30" s="16"/>
+      <c r="CA30" s="18"/>
       <c r="CB30" s="15"/>
-      <c r="CC30" s="16"/>
+      <c r="CC30" s="18"/>
       <c r="CD30" s="15"/>
-      <c r="CE30" s="16"/>
+      <c r="CE30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
       <c r="H31" s="13"/>
@@ -3436,99 +3431,99 @@
       <c r="CE31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="15"/>
-      <c r="Q32" s="16"/>
+      <c r="Q32" s="18"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="16"/>
+      <c r="S32" s="18"/>
       <c r="T32" s="15"/>
-      <c r="U32" s="16"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="16"/>
+      <c r="W32" s="18"/>
       <c r="X32" s="15"/>
-      <c r="Y32" s="16"/>
+      <c r="Y32" s="18"/>
       <c r="Z32" s="15"/>
-      <c r="AA32" s="16"/>
+      <c r="AA32" s="18"/>
       <c r="AB32" s="15"/>
-      <c r="AC32" s="16"/>
+      <c r="AC32" s="18"/>
       <c r="AD32" s="15"/>
-      <c r="AE32" s="16"/>
+      <c r="AE32" s="18"/>
       <c r="AF32" s="15"/>
-      <c r="AG32" s="16"/>
+      <c r="AG32" s="18"/>
       <c r="AH32" s="15"/>
-      <c r="AI32" s="16"/>
+      <c r="AI32" s="18"/>
       <c r="AJ32" s="15"/>
-      <c r="AK32" s="16"/>
+      <c r="AK32" s="18"/>
       <c r="AL32" s="15"/>
-      <c r="AM32" s="16"/>
+      <c r="AM32" s="18"/>
       <c r="AN32" s="15"/>
-      <c r="AO32" s="16"/>
+      <c r="AO32" s="18"/>
       <c r="AP32" s="15"/>
-      <c r="AQ32" s="16"/>
+      <c r="AQ32" s="18"/>
       <c r="AR32" s="15"/>
-      <c r="AS32" s="16"/>
+      <c r="AS32" s="18"/>
       <c r="AT32" s="15"/>
-      <c r="AU32" s="16"/>
+      <c r="AU32" s="18"/>
       <c r="AV32" s="15"/>
-      <c r="AW32" s="16"/>
+      <c r="AW32" s="18"/>
       <c r="AX32" s="15"/>
-      <c r="AY32" s="16"/>
+      <c r="AY32" s="18"/>
       <c r="AZ32" s="15"/>
-      <c r="BA32" s="16"/>
+      <c r="BA32" s="18"/>
       <c r="BB32" s="15"/>
-      <c r="BC32" s="16"/>
+      <c r="BC32" s="18"/>
       <c r="BD32" s="15"/>
-      <c r="BE32" s="16"/>
+      <c r="BE32" s="18"/>
       <c r="BF32" s="15"/>
-      <c r="BG32" s="16"/>
+      <c r="BG32" s="18"/>
       <c r="BH32" s="15"/>
-      <c r="BI32" s="16"/>
+      <c r="BI32" s="18"/>
       <c r="BJ32" s="15"/>
-      <c r="BK32" s="16"/>
+      <c r="BK32" s="18"/>
       <c r="BL32" s="15"/>
-      <c r="BM32" s="16"/>
+      <c r="BM32" s="18"/>
       <c r="BN32" s="15"/>
-      <c r="BO32" s="16"/>
+      <c r="BO32" s="18"/>
       <c r="BP32" s="15"/>
-      <c r="BQ32" s="16"/>
+      <c r="BQ32" s="18"/>
       <c r="BR32" s="15"/>
-      <c r="BS32" s="16"/>
+      <c r="BS32" s="18"/>
       <c r="BT32" s="15"/>
-      <c r="BU32" s="16"/>
+      <c r="BU32" s="18"/>
       <c r="BV32" s="15"/>
-      <c r="BW32" s="16"/>
+      <c r="BW32" s="18"/>
       <c r="BX32" s="15"/>
-      <c r="BY32" s="16"/>
+      <c r="BY32" s="18"/>
       <c r="BZ32" s="15"/>
-      <c r="CA32" s="16"/>
+      <c r="CA32" s="18"/>
       <c r="CB32" s="15"/>
-      <c r="CC32" s="16"/>
+      <c r="CC32" s="18"/>
       <c r="CD32" s="15"/>
-      <c r="CE32" s="16"/>
+      <c r="CE32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3618,96 +3613,96 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="16"/>
+      <c r="O34" s="18"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="16"/>
+      <c r="Q34" s="18"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="16"/>
+      <c r="S34" s="18"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="16"/>
+      <c r="U34" s="18"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="16"/>
+      <c r="W34" s="18"/>
       <c r="X34" s="15"/>
-      <c r="Y34" s="16"/>
+      <c r="Y34" s="18"/>
       <c r="Z34" s="15"/>
-      <c r="AA34" s="16"/>
+      <c r="AA34" s="18"/>
       <c r="AB34" s="15"/>
-      <c r="AC34" s="16"/>
+      <c r="AC34" s="18"/>
       <c r="AD34" s="15"/>
-      <c r="AE34" s="16"/>
+      <c r="AE34" s="18"/>
       <c r="AF34" s="15"/>
-      <c r="AG34" s="16"/>
+      <c r="AG34" s="18"/>
       <c r="AH34" s="15"/>
-      <c r="AI34" s="16"/>
+      <c r="AI34" s="18"/>
       <c r="AJ34" s="15"/>
-      <c r="AK34" s="16"/>
+      <c r="AK34" s="18"/>
       <c r="AL34" s="15"/>
-      <c r="AM34" s="16"/>
+      <c r="AM34" s="18"/>
       <c r="AN34" s="15"/>
-      <c r="AO34" s="16"/>
+      <c r="AO34" s="18"/>
       <c r="AP34" s="15"/>
-      <c r="AQ34" s="16"/>
+      <c r="AQ34" s="18"/>
       <c r="AR34" s="15"/>
-      <c r="AS34" s="16"/>
+      <c r="AS34" s="18"/>
       <c r="AT34" s="15"/>
-      <c r="AU34" s="16"/>
+      <c r="AU34" s="18"/>
       <c r="AV34" s="15"/>
-      <c r="AW34" s="16"/>
+      <c r="AW34" s="18"/>
       <c r="AX34" s="15"/>
-      <c r="AY34" s="16"/>
+      <c r="AY34" s="18"/>
       <c r="AZ34" s="15"/>
-      <c r="BA34" s="16"/>
+      <c r="BA34" s="18"/>
       <c r="BB34" s="15"/>
-      <c r="BC34" s="16"/>
+      <c r="BC34" s="18"/>
       <c r="BD34" s="15"/>
-      <c r="BE34" s="16"/>
+      <c r="BE34" s="18"/>
       <c r="BF34" s="15"/>
-      <c r="BG34" s="16"/>
+      <c r="BG34" s="18"/>
       <c r="BH34" s="15"/>
-      <c r="BI34" s="16"/>
+      <c r="BI34" s="18"/>
       <c r="BJ34" s="15"/>
-      <c r="BK34" s="16"/>
+      <c r="BK34" s="18"/>
       <c r="BL34" s="15"/>
-      <c r="BM34" s="16"/>
+      <c r="BM34" s="18"/>
       <c r="BN34" s="15"/>
-      <c r="BO34" s="16"/>
+      <c r="BO34" s="18"/>
       <c r="BP34" s="15"/>
-      <c r="BQ34" s="16"/>
+      <c r="BQ34" s="18"/>
       <c r="BR34" s="15"/>
-      <c r="BS34" s="16"/>
+      <c r="BS34" s="18"/>
       <c r="BT34" s="15"/>
-      <c r="BU34" s="16"/>
+      <c r="BU34" s="18"/>
       <c r="BV34" s="15"/>
-      <c r="BW34" s="16"/>
+      <c r="BW34" s="18"/>
       <c r="BX34" s="15"/>
-      <c r="BY34" s="16"/>
+      <c r="BY34" s="18"/>
       <c r="BZ34" s="15"/>
-      <c r="CA34" s="16"/>
+      <c r="CA34" s="18"/>
       <c r="CB34" s="15"/>
-      <c r="CC34" s="16"/>
+      <c r="CC34" s="18"/>
       <c r="CD34" s="15"/>
-      <c r="CE34" s="16"/>
+      <c r="CE34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
       <c r="H35" s="13"/>
@@ -3788,102 +3783,102 @@
       <c r="CE35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="16"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="15"/>
-      <c r="O36" s="16"/>
+      <c r="O36" s="18"/>
       <c r="P36" s="15"/>
-      <c r="Q36" s="16"/>
+      <c r="Q36" s="18"/>
       <c r="R36" s="15"/>
-      <c r="S36" s="16"/>
+      <c r="S36" s="18"/>
       <c r="T36" s="15"/>
-      <c r="U36" s="16"/>
+      <c r="U36" s="18"/>
       <c r="V36" s="15"/>
-      <c r="W36" s="16"/>
+      <c r="W36" s="18"/>
       <c r="X36" s="15"/>
-      <c r="Y36" s="16"/>
+      <c r="Y36" s="18"/>
       <c r="Z36" s="15"/>
-      <c r="AA36" s="16"/>
+      <c r="AA36" s="18"/>
       <c r="AB36" s="15"/>
-      <c r="AC36" s="16"/>
+      <c r="AC36" s="18"/>
       <c r="AD36" s="15"/>
-      <c r="AE36" s="16"/>
+      <c r="AE36" s="18"/>
       <c r="AF36" s="15"/>
-      <c r="AG36" s="16"/>
+      <c r="AG36" s="18"/>
       <c r="AH36" s="15"/>
-      <c r="AI36" s="16"/>
+      <c r="AI36" s="18"/>
       <c r="AJ36" s="15"/>
-      <c r="AK36" s="16"/>
+      <c r="AK36" s="18"/>
       <c r="AL36" s="15"/>
-      <c r="AM36" s="16"/>
+      <c r="AM36" s="18"/>
       <c r="AN36" s="15"/>
-      <c r="AO36" s="16"/>
+      <c r="AO36" s="18"/>
       <c r="AP36" s="15"/>
-      <c r="AQ36" s="16"/>
+      <c r="AQ36" s="18"/>
       <c r="AR36" s="15"/>
-      <c r="AS36" s="16"/>
+      <c r="AS36" s="18"/>
       <c r="AT36" s="15"/>
-      <c r="AU36" s="16"/>
+      <c r="AU36" s="18"/>
       <c r="AV36" s="15"/>
-      <c r="AW36" s="16"/>
+      <c r="AW36" s="18"/>
       <c r="AX36" s="15"/>
-      <c r="AY36" s="16"/>
+      <c r="AY36" s="18"/>
       <c r="AZ36" s="15"/>
-      <c r="BA36" s="16"/>
+      <c r="BA36" s="18"/>
       <c r="BB36" s="15"/>
-      <c r="BC36" s="16"/>
+      <c r="BC36" s="18"/>
       <c r="BD36" s="15"/>
-      <c r="BE36" s="16"/>
+      <c r="BE36" s="18"/>
       <c r="BF36" s="15"/>
-      <c r="BG36" s="16"/>
+      <c r="BG36" s="18"/>
       <c r="BH36" s="15"/>
-      <c r="BI36" s="16"/>
+      <c r="BI36" s="18"/>
       <c r="BJ36" s="15"/>
-      <c r="BK36" s="16"/>
+      <c r="BK36" s="18"/>
       <c r="BL36" s="15"/>
-      <c r="BM36" s="16"/>
+      <c r="BM36" s="18"/>
       <c r="BN36" s="15"/>
-      <c r="BO36" s="16"/>
+      <c r="BO36" s="18"/>
       <c r="BP36" s="15"/>
-      <c r="BQ36" s="16"/>
+      <c r="BQ36" s="18"/>
       <c r="BR36" s="15"/>
-      <c r="BS36" s="16"/>
+      <c r="BS36" s="18"/>
       <c r="BT36" s="15"/>
-      <c r="BU36" s="16"/>
+      <c r="BU36" s="18"/>
       <c r="BV36" s="15"/>
-      <c r="BW36" s="16"/>
+      <c r="BW36" s="18"/>
       <c r="BX36" s="15"/>
-      <c r="BY36" s="16"/>
+      <c r="BY36" s="18"/>
       <c r="BZ36" s="15"/>
-      <c r="CA36" s="16"/>
+      <c r="CA36" s="18"/>
       <c r="CB36" s="15"/>
-      <c r="CC36" s="16"/>
+      <c r="CC36" s="18"/>
       <c r="CD36" s="15"/>
-      <c r="CE36" s="16"/>
+      <c r="CE36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
       <c r="H37" s="13"/>
@@ -3966,144 +3961,144 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="16"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="15"/>
-      <c r="O38" s="16"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="16"/>
+      <c r="Q38" s="18"/>
       <c r="R38" s="15"/>
-      <c r="S38" s="16"/>
+      <c r="S38" s="18"/>
       <c r="T38" s="15"/>
-      <c r="U38" s="16"/>
+      <c r="U38" s="18"/>
       <c r="V38" s="15"/>
-      <c r="W38" s="16"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="15"/>
-      <c r="Y38" s="16"/>
+      <c r="Y38" s="18"/>
       <c r="Z38" s="15"/>
-      <c r="AA38" s="16"/>
+      <c r="AA38" s="18"/>
       <c r="AB38" s="15"/>
-      <c r="AC38" s="16"/>
+      <c r="AC38" s="18"/>
       <c r="AD38" s="15"/>
-      <c r="AE38" s="16"/>
+      <c r="AE38" s="18"/>
       <c r="AF38" s="15"/>
-      <c r="AG38" s="16"/>
+      <c r="AG38" s="18"/>
       <c r="AH38" s="15"/>
-      <c r="AI38" s="16"/>
+      <c r="AI38" s="18"/>
       <c r="AJ38" s="15"/>
-      <c r="AK38" s="16"/>
+      <c r="AK38" s="18"/>
       <c r="AL38" s="15"/>
-      <c r="AM38" s="16"/>
+      <c r="AM38" s="18"/>
       <c r="AN38" s="15"/>
-      <c r="AO38" s="16"/>
+      <c r="AO38" s="18"/>
       <c r="AP38" s="15"/>
-      <c r="AQ38" s="16"/>
+      <c r="AQ38" s="18"/>
       <c r="AR38" s="15"/>
-      <c r="AS38" s="16"/>
+      <c r="AS38" s="18"/>
       <c r="AT38" s="15"/>
-      <c r="AU38" s="16"/>
+      <c r="AU38" s="18"/>
       <c r="AV38" s="15"/>
-      <c r="AW38" s="16"/>
+      <c r="AW38" s="18"/>
       <c r="AX38" s="15"/>
-      <c r="AY38" s="16"/>
+      <c r="AY38" s="18"/>
       <c r="AZ38" s="15"/>
-      <c r="BA38" s="16"/>
+      <c r="BA38" s="18"/>
       <c r="BB38" s="15"/>
-      <c r="BC38" s="16"/>
+      <c r="BC38" s="18"/>
       <c r="BD38" s="15"/>
-      <c r="BE38" s="16"/>
+      <c r="BE38" s="18"/>
       <c r="BF38" s="15"/>
-      <c r="BG38" s="16"/>
+      <c r="BG38" s="18"/>
       <c r="BH38" s="15"/>
-      <c r="BI38" s="16"/>
+      <c r="BI38" s="18"/>
       <c r="BJ38" s="15"/>
-      <c r="BK38" s="16"/>
+      <c r="BK38" s="18"/>
       <c r="BL38" s="15"/>
-      <c r="BM38" s="16"/>
+      <c r="BM38" s="18"/>
       <c r="BN38" s="15"/>
-      <c r="BO38" s="16"/>
+      <c r="BO38" s="18"/>
       <c r="BP38" s="15"/>
-      <c r="BQ38" s="16"/>
+      <c r="BQ38" s="18"/>
       <c r="BR38" s="15"/>
-      <c r="BS38" s="16"/>
+      <c r="BS38" s="18"/>
       <c r="BT38" s="15"/>
-      <c r="BU38" s="16"/>
+      <c r="BU38" s="18"/>
       <c r="BV38" s="15"/>
-      <c r="BW38" s="16"/>
+      <c r="BW38" s="18"/>
       <c r="BX38" s="15"/>
-      <c r="BY38" s="16"/>
+      <c r="BY38" s="18"/>
       <c r="BZ38" s="15"/>
-      <c r="CA38" s="16"/>
+      <c r="CA38" s="18"/>
       <c r="CB38" s="15"/>
-      <c r="CC38" s="16"/>
+      <c r="CC38" s="18"/>
       <c r="CD38" s="15"/>
-      <c r="CE38" s="16"/>
+      <c r="CE38" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
-        <v>46</v>
+      <c r="A40" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
-        <v>47</v>
+      <c r="A41" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="A43" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="B44" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -4137,49 +4132,49 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="A47" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -4213,49 +4208,49 @@
       <c r="O50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
+      <c r="A51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4289,49 +4284,49 @@
       <c r="O54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
+      <c r="A55" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -4365,49 +4360,49 @@
       <c r="O58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
+      <c r="A59" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4441,49 +4436,49 @@
       <c r="O62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
+      <c r="A63" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -4517,49 +4512,49 @@
       <c r="O66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
+      <c r="A67" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -4593,49 +4588,49 @@
       <c r="O70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
+      <c r="A71" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4669,49 +4664,49 @@
       <c r="O74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
+      <c r="A75" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>

--- a/doc/Gantt.xlsx
+++ b/doc/Gantt.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t xml:space="preserve">Planificación y organización</t>
   </si>
@@ -34,19 +34,28 @@
     <t xml:space="preserve">Noviembre</t>
   </si>
   <si>
-    <t xml:space="preserve">Semana 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 5</t>
+    <t xml:space="preserve">Semana 1  (08/10/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 2  (9/10/23 - 15/10/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 3  (16/10/23 - 22/10/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 4  (23/10/23 – 29/10/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 5  (30/10/23 – 31/10/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 1  (01/11/23 - 05/11/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 2 (06/11/23 – 12/11/23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana 3 (13/11/23 – 19/11/23)</t>
   </si>
   <si>
     <t xml:space="preserve">Tarea</t>
@@ -175,6 +184,9 @@
     <t xml:space="preserve">Descripción</t>
   </si>
   <si>
+    <t xml:space="preserve">Check</t>
+  </si>
+  <si>
     <t xml:space="preserve">Creación del diagrama de Gantt, diagrama de contexto, diccionario de entradas y salidas, preliminar de datos, DFD, diccionario de procesos, mapa de navegación, análisis FODA</t>
   </si>
   <si>
@@ -190,7 +202,7 @@
     <t xml:space="preserve">Creación de la base de datos en phpmyadmin</t>
   </si>
   <si>
-    <t xml:space="preserve">Selección de la plantilla y estilo a seguir para la creación de la webapp</t>
+    <t xml:space="preserve">Selección de la plantilla, estilo a seguir para la creación de la webapp y su intalación</t>
   </si>
   <si>
     <t xml:space="preserve">Creación de la pagina de bienvenida o inicio</t>
@@ -400,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,6 +517,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:CE78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K13:K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CF3" activeCellId="0" sqref="CF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,7 +866,7 @@
       <c r="AZ3" s="5"/>
       <c r="BA3" s="5"/>
       <c r="BB3" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC3" s="5"/>
       <c r="BD3" s="5"/>
@@ -850,7 +878,7 @@
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
       <c r="BL3" s="5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
@@ -866,7 +894,7 @@
       <c r="BX3" s="5"/>
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="CA3" s="5"/>
       <c r="CB3" s="5"/>
@@ -876,192 +904,192 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="7"/>
       <c r="AL4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO4" s="7"/>
       <c r="AP4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW4" s="7"/>
       <c r="AX4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA4" s="7"/>
       <c r="BB4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC4" s="7"/>
       <c r="BD4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BE4" s="7"/>
       <c r="BF4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BG4" s="7"/>
       <c r="BH4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BQ4" s="7"/>
       <c r="BR4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BS4" s="7"/>
       <c r="BT4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BU4" s="7"/>
       <c r="BV4" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BW4" s="7"/>
       <c r="BX4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BY4" s="7"/>
       <c r="BZ4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CA4" s="7"/>
       <c r="CB4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CC4" s="7"/>
       <c r="CD4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CE4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>45207</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
@@ -1229,13 +1257,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="20"/>
@@ -1405,13 +1433,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1581,13 +1609,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -1695,7 +1723,7 @@
       <c r="V12" s="15"/>
       <c r="W12" s="18"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="18"/>
+      <c r="Y12" s="16"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="18"/>
       <c r="AB12" s="15"/>
@@ -1757,13 +1785,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1933,13 +1961,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -2109,13 +2137,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -2285,13 +2313,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -2461,13 +2489,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2637,13 +2665,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -2813,13 +2841,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -2989,13 +3017,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -3165,13 +3193,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -3341,13 +3369,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -3517,13 +3545,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3693,13 +3721,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
@@ -3869,13 +3897,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -4045,17 +4073,17 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
@@ -4071,13 +4099,14 @@
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -4092,13 +4121,16 @@
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
+      <c r="P44" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -4113,6 +4145,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
+      <c r="P45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
@@ -4130,13 +4163,14 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
+      <c r="P46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
@@ -4151,6 +4185,7 @@
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
       <c r="O47" s="19"/>
+      <c r="P47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="19"/>
@@ -4168,13 +4203,14 @@
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19"/>
+      <c r="P48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -4189,6 +4225,7 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
+      <c r="P49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
@@ -4206,13 +4243,14 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
+      <c r="P50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -4227,6 +4265,7 @@
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
+      <c r="P51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="19"/>
@@ -4244,13 +4283,14 @@
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
+      <c r="P52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -4265,6 +4305,7 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
+      <c r="P53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
@@ -4282,13 +4323,14 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
+      <c r="P54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
@@ -4303,6 +4345,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
+      <c r="P55" s="29"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19"/>
@@ -4320,13 +4363,14 @@
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
+      <c r="P56" s="29"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -4341,6 +4385,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
+      <c r="P57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
@@ -4358,13 +4403,14 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
+      <c r="P58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
@@ -4379,6 +4425,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
+      <c r="P59" s="27"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19"/>
@@ -4396,13 +4443,14 @@
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19"/>
+      <c r="P60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -4417,6 +4465,7 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
+      <c r="P61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
@@ -4434,13 +4483,14 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
+      <c r="P62" s="27"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
@@ -4455,6 +4505,7 @@
       <c r="M63" s="19"/>
       <c r="N63" s="19"/>
       <c r="O63" s="19"/>
+      <c r="P63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="19"/>
@@ -4472,13 +4523,14 @@
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
       <c r="O64" s="19"/>
+      <c r="P64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -4493,6 +4545,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
+      <c r="P65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
@@ -4510,13 +4563,14 @@
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
+      <c r="P66" s="27"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
@@ -4531,6 +4585,7 @@
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
       <c r="O67" s="19"/>
+      <c r="P67" s="27"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="19"/>
@@ -4548,13 +4603,14 @@
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
       <c r="O68" s="19"/>
+      <c r="P68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -4569,6 +4625,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
+      <c r="P69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8"/>
@@ -4586,13 +4643,14 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
+      <c r="P70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -4607,6 +4665,7 @@
       <c r="M71" s="19"/>
       <c r="N71" s="19"/>
       <c r="O71" s="19"/>
+      <c r="P71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="19"/>
@@ -4624,13 +4683,14 @@
       <c r="M72" s="19"/>
       <c r="N72" s="19"/>
       <c r="O72" s="19"/>
+      <c r="P72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -4645,6 +4705,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
+      <c r="P73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8"/>
@@ -4662,13 +4723,14 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
+      <c r="P74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
@@ -4683,6 +4745,7 @@
       <c r="M75" s="19"/>
       <c r="N75" s="19"/>
       <c r="O75" s="19"/>
+      <c r="P75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="19"/>
@@ -4700,13 +4763,14 @@
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
       <c r="O76" s="19"/>
+      <c r="P76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -4721,6 +4785,7 @@
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
+      <c r="P77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8"/>
@@ -4738,9 +4803,10 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
+      <c r="P78" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="189">
     <mergeCell ref="A1:CE1"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="F2:BI2"/>
@@ -4877,42 +4943,59 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A43:O43"/>
+    <mergeCell ref="A43:P43"/>
     <mergeCell ref="B44:O44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:O46"/>
+    <mergeCell ref="P45:P46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:O48"/>
+    <mergeCell ref="P47:P48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:O50"/>
+    <mergeCell ref="P49:P50"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:O52"/>
+    <mergeCell ref="P51:P52"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:O54"/>
+    <mergeCell ref="P53:P54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:O56"/>
+    <mergeCell ref="P55:P56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:O58"/>
+    <mergeCell ref="P57:P58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:O60"/>
+    <mergeCell ref="P59:P60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:O62"/>
+    <mergeCell ref="P61:P62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="B63:O64"/>
+    <mergeCell ref="P63:P64"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:O66"/>
+    <mergeCell ref="P65:P66"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:O68"/>
+    <mergeCell ref="P67:P68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:O70"/>
+    <mergeCell ref="P69:P70"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:O72"/>
+    <mergeCell ref="P71:P72"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B73:O74"/>
+    <mergeCell ref="P73:P74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="B75:O76"/>
+    <mergeCell ref="P75:P76"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:O78"/>
+    <mergeCell ref="P77:P78"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc/Gantt.xlsx
+++ b/doc/Gantt.xlsx
@@ -412,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,19 +517,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:CE78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CF3" activeCellId="0" sqref="CF3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S50" activeCellId="0" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2075,11 +2071,11 @@
       <c r="V16" s="15"/>
       <c r="W16" s="18"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="18"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="18"/>
       <c r="AF16" s="15"/>
@@ -4345,7 +4341,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="19"/>
       <c r="O55" s="19"/>
-      <c r="P55" s="29"/>
+      <c r="P55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="19"/>
@@ -4363,7 +4359,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
       <c r="O56" s="19"/>
-      <c r="P56" s="29"/>
+      <c r="P56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">

--- a/doc/Gantt.xlsx
+++ b/doc/Gantt.xlsx
@@ -608,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:CE78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S50" activeCellId="0" sqref="S50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C50" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2286,8 +2286,8 @@
       <c r="BI18" s="18"/>
       <c r="BJ18" s="15"/>
       <c r="BK18" s="18"/>
-      <c r="BL18" s="15"/>
-      <c r="BM18" s="18"/>
+      <c r="BL18" s="17"/>
+      <c r="BM18" s="16"/>
       <c r="BN18" s="15"/>
       <c r="BO18" s="18"/>
       <c r="BP18" s="15"/>
@@ -2463,21 +2463,21 @@
       <c r="BJ20" s="15"/>
       <c r="BK20" s="18"/>
       <c r="BL20" s="15"/>
-      <c r="BM20" s="18"/>
-      <c r="BN20" s="15"/>
-      <c r="BO20" s="18"/>
-      <c r="BP20" s="15"/>
-      <c r="BQ20" s="18"/>
-      <c r="BR20" s="15"/>
-      <c r="BS20" s="18"/>
-      <c r="BT20" s="15"/>
-      <c r="BU20" s="18"/>
-      <c r="BV20" s="15"/>
-      <c r="BW20" s="18"/>
-      <c r="BX20" s="15"/>
-      <c r="BY20" s="18"/>
-      <c r="BZ20" s="15"/>
-      <c r="CA20" s="18"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="17"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="17"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="17"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="17"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="17"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="17"/>
+      <c r="BY20" s="16"/>
+      <c r="BZ20" s="17"/>
+      <c r="CA20" s="16"/>
       <c r="CB20" s="15"/>
       <c r="CC20" s="18"/>
       <c r="CD20" s="15"/>
@@ -2644,16 +2644,16 @@
       <c r="BO22" s="18"/>
       <c r="BP22" s="15"/>
       <c r="BQ22" s="18"/>
-      <c r="BR22" s="15"/>
-      <c r="BS22" s="18"/>
-      <c r="BT22" s="15"/>
-      <c r="BU22" s="18"/>
-      <c r="BV22" s="15"/>
-      <c r="BW22" s="18"/>
-      <c r="BX22" s="15"/>
-      <c r="BY22" s="18"/>
-      <c r="BZ22" s="15"/>
-      <c r="CA22" s="18"/>
+      <c r="BR22" s="17"/>
+      <c r="BS22" s="16"/>
+      <c r="BT22" s="17"/>
+      <c r="BU22" s="16"/>
+      <c r="BV22" s="17"/>
+      <c r="BW22" s="16"/>
+      <c r="BX22" s="17"/>
+      <c r="BY22" s="16"/>
+      <c r="BZ22" s="17"/>
+      <c r="CA22" s="16"/>
       <c r="CB22" s="15"/>
       <c r="CC22" s="18"/>
       <c r="CD22" s="15"/>
@@ -4381,7 +4381,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
-      <c r="P57" s="27"/>
+      <c r="P57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
@@ -4399,7 +4399,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="27"/>
+      <c r="P58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="19" t="s">
@@ -4421,7 +4421,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
       <c r="O59" s="19"/>
-      <c r="P59" s="27"/>
+      <c r="P59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="19"/>
@@ -4439,7 +4439,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
       <c r="O60" s="19"/>
-      <c r="P60" s="27"/>
+      <c r="P60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
